--- a/django_thesis/Data_Gathering/VIVO Crowdsourcing Calibration Coefficients/NEW DATA/FINAL_ap_data_long4_floorid56_cap2.xlsx
+++ b/django_thesis/Data_Gathering/VIVO Crowdsourcing Calibration Coefficients/NEW DATA/FINAL_ap_data_long4_floorid56_cap2.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thesis2.0\django_thesis\Data_Gathering\VIVO Crowdsourcing Calibration Coefficients\NEW DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B87234-7A4A-4064-9863-7239DB3B6D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2442" sheetId="1" r:id="rId1"/>
     <sheet name="2437" sheetId="2" r:id="rId2"/>
     <sheet name="2432" sheetId="3" r:id="rId3"/>
     <sheet name="2447" sheetId="4" r:id="rId4"/>
-    <sheet name="2427" sheetId="5" r:id="rId5"/>
-    <sheet name="2452" sheetId="6" r:id="rId6"/>
+    <sheet name="dev2_2447" sheetId="7" r:id="rId5"/>
+    <sheet name="2427" sheetId="5" r:id="rId6"/>
+    <sheet name="2452" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2447'!$A$1:$A$25</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="7">
   <si>
     <t>SSID</t>
   </si>
@@ -45,8 +55,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +119,1008 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dev2_2447!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Signal Strength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dev2_2447!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dev2_2447!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-75.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-69.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3539-4778-976A-39FD7EDB78B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="189046272"/>
+        <c:axId val="189057312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="189046272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="189057312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="189057312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="189046272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF81A8B3-80D7-4548-D5DB-D01152B651C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,7 +1158,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -187,6 +1192,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -221,9 +1227,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -396,38 +1403,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +1445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -446,7 +1453,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -454,7 +1461,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -462,7 +1469,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -470,7 +1477,7 @@
         <v>-63</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -478,7 +1485,7 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -486,7 +1493,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -494,7 +1501,7 @@
         <v>-67</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -502,7 +1509,7 @@
         <v>-72</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -510,7 +1517,7 @@
         <v>-69</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -518,7 +1525,7 @@
         <v>-77</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -526,7 +1533,7 @@
         <v>-68</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -537,7 +1544,7 @@
         <v>-78</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -545,7 +1552,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -553,7 +1560,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -561,7 +1568,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -569,7 +1576,7 @@
         <v>-73</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -583,14 +1590,393 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>-68</v>
+      </c>
+      <c r="C2">
+        <v>-75.333333333333329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-70</v>
+      </c>
+      <c r="C6">
+        <v>-69.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>-71</v>
+      </c>
+      <c r="C9">
+        <v>-75.666666666666671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>-73</v>
+      </c>
+      <c r="C13">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>-76</v>
+      </c>
+      <c r="C16">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>-67</v>
+      </c>
+      <c r="C20">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>-80</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A25" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="TechnoCamon_20"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D169A5DA-BD0A-41D5-B514-4AB025E08914}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="B1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>-68</v>
+      </c>
+      <c r="C2">
+        <v>-75.333333333333329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>-70</v>
+      </c>
+      <c r="C4">
+        <v>-69.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>-76</v>
+      </c>
+      <c r="C9">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>-67</v>
+      </c>
+      <c r="C11">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>-80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,214 +1987,116 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>-81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
         <v>-68</v>
       </c>
-      <c r="C2">
-        <v>-75.33333333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>-68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>-74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>-74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-70</v>
-      </c>
-      <c r="C6">
-        <v>-69.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>-70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>-71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>-71</v>
-      </c>
-      <c r="C9">
-        <v>-75.66666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>-72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>-72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>-73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>-73</v>
-      </c>
-      <c r="C13">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
         <v>-76</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>-75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>-75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>-76</v>
-      </c>
-      <c r="C16">
-        <v>-72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>-76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>-69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>-69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>-67</v>
-      </c>
-      <c r="C20">
-        <v>-71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>-67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22">
         <v>-66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>-66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>-80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>-80</v>
       </c>
     </row>
   </sheetData>
@@ -816,15 +2104,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,143 +2125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>-75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>-69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>-71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>-72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>-79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>-77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>-70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>-81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>-74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>-67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>-68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>-76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>-66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -982,7 +2136,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -990,7 +2144,7 @@
         <v>-78</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -998,7 +2152,7 @@
         <v>-78</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +2160,7 @@
         <v>-84</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1014,7 +2168,7 @@
         <v>-84</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1022,7 +2176,7 @@
         <v>-84</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1030,7 +2184,7 @@
         <v>-82</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1038,7 +2192,7 @@
         <v>-82</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
